--- a/Running projects/Food Court North Walk/335 Invoice for d11 swiiming pool work.xlsx
+++ b/Running projects/Food Court North Walk/335 Invoice for d11 swiiming pool work.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302D183-AB03-4062-9BF4-85BA5A040FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9D51A-11C9-4816-82AB-6F9CE1263673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">B) INDOOR AREA GLASSWOOL INSULATION REPLACED WITH XLPE INSULATION </t>
   </si>
   <si>
-    <t>Supply of jazuki nozzels</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>D11 - North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>Supply of Jacuzzi nozzels</t>
   </si>
 </sst>
 </file>
@@ -499,6 +499,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -506,27 +527,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -613,16 +613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>972821</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -639,7 +639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1229996" y="314325"/>
+          <a:off x="11907521" y="2124075"/>
           <a:ext cx="6256654" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -716,16 +716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125557</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,7 +749,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276224" y="19050"/>
+          <a:off x="10953749" y="1828800"/>
           <a:ext cx="1028701" cy="820882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -768,16 +768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609889</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276514</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -806,7 +806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60325" y="6057900"/>
+          <a:off x="15043150" y="5638800"/>
           <a:ext cx="806739" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1178,23 +1178,23 @@
     </row>
     <row r="14" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:13" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -1207,19 +1207,19 @@
       <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="A18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="31">
         <v>12</v>
@@ -1359,13 +1359,13 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="17">
         <f>F21</f>
         <v>76200</v>
@@ -1429,7 +1429,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="E30" s="56"/>
+      <c r="E30" s="48"/>
       <c r="I30" s="40" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E32" s="57"/>
+      <c r="E32" s="49"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.3">
@@ -1464,10 +1464,10 @@
       </c>
     </row>
     <row r="35" spans="5:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="55"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="I37" s="41" t="s">
@@ -1497,10 +1497,10 @@
       </c>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="50"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E43" s="15"/>
@@ -1604,66 +1604,66 @@
       </c>
     </row>
     <row r="55" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
     </row>
     <row r="56" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G58" s="48" t="s">
+      <c r="G58" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
     </row>
     <row r="59" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G59" s="48" t="s">
+      <c r="G59" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I35:J35"/>
     <mergeCell ref="G59:L59"/>
     <mergeCell ref="G55:J55"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="G56:L56"/>
     <mergeCell ref="G57:L57"/>
     <mergeCell ref="G58:L58"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
